--- a/20th Aug Batch/train-test.xlsx
+++ b/20th Aug Batch/train-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\20th Aug Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BADA26-BF70-49B8-A7A5-BDE34E4969C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699AA921-FF3F-4E64-BF85-8307D33BAEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>a</t>
   </si>
@@ -91,6 +82,39 @@
   </si>
   <si>
     <t>dumbell</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>xtrain</t>
+  </si>
+  <si>
+    <t>ytrain</t>
+  </si>
+  <si>
+    <t>xtest</t>
+  </si>
+  <si>
+    <t>ytest</t>
+  </si>
+  <si>
+    <t>predicted</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>squared error</t>
+  </si>
+  <si>
+    <t>mse</t>
   </si>
 </sst>
 </file>
@@ -126,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,14 +173,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -164,7 +199,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,210 +505,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:E24"/>
+  <dimension ref="A4:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8">
         <v>19000</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="9"/>
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="9"/>
+      <c r="E7" s="8">
         <v>13000</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="F7" s="3"/>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="9"/>
+      <c r="E8" s="8">
         <v>18500</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>98</v>
+      </c>
+      <c r="O8">
+        <f>M8-N8</f>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f>O8^2</f>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f>AVERAGE(P8:P11)</f>
+        <v>5001.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="9"/>
+      <c r="E9" s="8">
         <v>11500</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="M9">
+        <v>134</v>
+      </c>
+      <c r="N9">
+        <v>198</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O11" si="0">M9-N9</f>
+        <v>-64</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:P11" si="1">O9^2</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10">
         <v>14500</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="M10">
+        <v>178</v>
+      </c>
+      <c r="N10">
+        <v>54</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>15376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="11"/>
+      <c r="E11" s="10">
         <v>19500</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F11" s="3"/>
+      <c r="M11">
+        <v>134</v>
+      </c>
+      <c r="N11">
+        <v>111</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
         <v>14800</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
         <v>18000</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>14500</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f>E15-E18</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>19500</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <f>E16-E19</f>
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5">
+      <c r="C23" s="1">
         <v>150</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>0.1123</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>0.22567000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A5:A9"/>
     <mergeCell ref="D5:D9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
